--- a/Sources/RTM.xlsx
+++ b/Sources/RTM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehyu\Documents\GitHub\M-web\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D43319-5203-4822-9870-EBC8DF7604E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17148BD7-05B4-4B4D-85D8-1902BABC3945}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63C573DF-2113-49C3-A814-A70F7E332B21}"/>
   </bookViews>
@@ -31,102 +31,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>1. User log in 1.1 New Users</t>
-  </si>
-  <si>
-    <t>TS_Login_01- Application shall have sign up feature</t>
-  </si>
-  <si>
-    <t>TS_Login_02- Application shall keep user info in database</t>
-  </si>
-  <si>
-    <t>1.2 Existing users</t>
-  </si>
-  <si>
-    <t>TS_Login_03- Application shall check if user info already exist</t>
-  </si>
-  <si>
-    <t>TS_Login_04- Application shall provide extra features for login users</t>
-  </si>
-  <si>
-    <t>TS_Login_05- Application shall verify user information</t>
-  </si>
-  <si>
-    <t>2. Photo</t>
-  </si>
-  <si>
-    <t>2.1 Photo upload</t>
-  </si>
-  <si>
-    <t>TS_UL_01- Users shall upload photos</t>
-  </si>
-  <si>
-    <t>TS_UL_02- Users shall not upload anything other than image file</t>
-  </si>
-  <si>
-    <t>TS_UL_03- Non-verified users shall not upload photos</t>
-  </si>
-  <si>
-    <t>TS_UL_04- Application shall keep image files in database</t>
-  </si>
-  <si>
-    <t>2.2 Delete photo</t>
-  </si>
-  <si>
-    <t>TS_UL_05- Application shall remove photos per user request</t>
-  </si>
-  <si>
-    <t>TS_UL_06- Users shall not remove other's photos</t>
-  </si>
-  <si>
-    <t>3. Comment</t>
-  </si>
-  <si>
-    <t>3.1 comments</t>
-  </si>
-  <si>
-    <t>TS_CM_01- Users shall leae comments on photos</t>
-  </si>
-  <si>
-    <t>TS_CM_02- Non-verified users shall not leave comments on photos</t>
-  </si>
-  <si>
-    <t>TS_CM_03- Application shall keep comments in database</t>
-  </si>
-  <si>
-    <t>3.2 Delete comments</t>
-  </si>
-  <si>
-    <t>TS_CM_04- Application shall remove comments per user request</t>
-  </si>
-  <si>
-    <t>TS_CM_05- Users shall not remove other's photos</t>
-  </si>
-  <si>
-    <t>Not yet tested</t>
-  </si>
-  <si>
-    <t>Test procedure</t>
-  </si>
-  <si>
-    <t>Test Method</t>
-  </si>
-  <si>
-    <t>Test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>1 User wants to log-in</t>
+  </si>
+  <si>
+    <t>1.1 Application will support Register</t>
+  </si>
+  <si>
+    <t>application shall have a link to register view</t>
+  </si>
+  <si>
+    <t>Application shall have register view</t>
+  </si>
+  <si>
+    <t>Application shall keep user data in database</t>
+  </si>
+  <si>
+    <t>Application shall encrypt input password</t>
+  </si>
+  <si>
+    <t>1.2 application will support login</t>
+  </si>
+  <si>
+    <t>application shall have an access(button) to log in form</t>
+  </si>
+  <si>
+    <t>application shall have a form section for log in</t>
+  </si>
+  <si>
+    <t>application shall encrypt input password and compare that to database</t>
+  </si>
+  <si>
+    <t>application shall store log in data</t>
+  </si>
+  <si>
+    <t>1.3 application will support edit log-in data</t>
+  </si>
+  <si>
+    <t>application shall have view page to change user's log-in data</t>
+  </si>
+  <si>
+    <t>application shall have access to edit user info form</t>
+  </si>
+  <si>
+    <t>application shall have edit view</t>
+  </si>
+  <si>
+    <t>application shall have account detail view for users</t>
+  </si>
+  <si>
+    <t>1.4 application will let users delete account</t>
+  </si>
+  <si>
+    <t>application shall have access to delete account trigger</t>
+  </si>
+  <si>
+    <t>application shall delete the particular context from Db</t>
+  </si>
+  <si>
+    <t>1.5 application will have index page for administrative purpose</t>
+  </si>
+  <si>
+    <t>application shall have authentication</t>
+  </si>
+  <si>
+    <t>application shall not provide access to admin page to users</t>
+  </si>
+  <si>
+    <t>2 User wants to access photos (markers)</t>
+  </si>
+  <si>
+    <t>2.1 Application will implement map</t>
+  </si>
+  <si>
+    <t>Application shall project a map</t>
+  </si>
+  <si>
+    <t>Map shall show dynamic views</t>
+  </si>
+  <si>
+    <t>Application shall have roles(users,admin)</t>
+  </si>
+  <si>
+    <t>Application shall have location search so users can check a place easier</t>
+  </si>
+  <si>
+    <t>Application will ask for permission to track user location</t>
+  </si>
+  <si>
+    <t>Application shall have center button in case user permits user location tracker</t>
+  </si>
+  <si>
+    <t>2.2 Application will show data on the map</t>
+  </si>
+  <si>
+    <t>Application shall project a marker at a location where user saved a photo</t>
   </si>
 </sst>
 </file>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20629E83-4702-439D-B0C7-A1255B7C5BF6}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,224 +494,164 @@
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/RTM.xlsx
+++ b/Sources/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehyu\Documents\GitHub\M-web\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17148BD7-05B4-4B4D-85D8-1902BABC3945}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7278B7-8561-409A-B677-873BD8F50F7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63C573DF-2113-49C3-A814-A70F7E332B21}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>1 User wants to log-in</t>
   </si>
@@ -127,6 +128,24 @@
   </si>
   <si>
     <t>Application shall project a marker at a location where user saved a photo</t>
+  </si>
+  <si>
+    <t>Application shall show image on top of marker</t>
+  </si>
+  <si>
+    <t>Application shall show comments saved onto images on the left panel</t>
+  </si>
+  <si>
+    <t>Application shall show selected images on the left panel</t>
+  </si>
+  <si>
+    <t>2.3 Modify markers</t>
+  </si>
+  <si>
+    <t>Application shall let users modify/delete photos</t>
+  </si>
+  <si>
+    <t>Application shall let users modify/delete comments</t>
   </si>
 </sst>
 </file>
@@ -478,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20629E83-4702-439D-B0C7-A1255B7C5BF6}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="59.21875" customWidth="1"/>
+    <col min="3" max="3" width="69.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="42.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
@@ -654,6 +673,36 @@
         <v>31</v>
       </c>
     </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
